--- a/BackTest/2020-01-14 BackTest OGO.xlsx
+++ b/BackTest/2020-01-14 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-24648.27300000004</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-24648.27300000004</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>10.24</v>
@@ -521,7 +521,7 @@
         <v>379879.0566</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>10.24</v>
@@ -562,7 +562,7 @@
         <v>398938.6399</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>10.41</v>
@@ -603,7 +603,7 @@
         <v>610423.3180999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>10.42</v>
@@ -640,7 +640,7 @@
         <v>780134.1547816772</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>10.55</v>
@@ -681,7 +681,7 @@
         <v>834471.7443816771</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>10.7</v>
@@ -755,14 +755,10 @@
         <v>1154310.720952411</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="J10" t="n">
-        <v>10.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -795,14 +791,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -834,14 +824,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -1629,7 +1613,7 @@
         <v>2724769.631904637</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1662,7 +1646,7 @@
         <v>2591989.968504637</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1695,7 +1679,7 @@
         <v>2761544.556004637</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1728,7 +1712,7 @@
         <v>2255693.189404638</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1761,7 +1745,7 @@
         <v>2210179.569804638</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1794,7 +1778,7 @@
         <v>2319304.265204638</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1827,7 +1811,7 @@
         <v>2242793.262804638</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1860,7 +1844,7 @@
         <v>2280183.680804638</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1893,7 +1877,7 @@
         <v>2382732.424804638</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1926,7 +1910,7 @@
         <v>1180014.033104638</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1959,7 +1943,7 @@
         <v>1164335.392604638</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1992,7 +1976,7 @@
         <v>1131068.814904638</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2025,7 +2009,7 @@
         <v>1131068.814904638</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2058,7 +2042,7 @@
         <v>1144135.701204638</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2091,7 +2075,7 @@
         <v>1232756.241404637</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2124,7 +2108,7 @@
         <v>1181521.813304638</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2157,7 +2141,7 @@
         <v>1181521.813304638</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2256,7 +2240,7 @@
         <v>1538784.236107433</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2289,7 +2273,7 @@
         <v>1328402.465407433</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2322,7 +2306,7 @@
         <v>1275021.580407433</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2355,7 +2339,7 @@
         <v>1572411.833607433</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2388,7 +2372,7 @@
         <v>1464484.053207433</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2421,7 +2405,7 @@
         <v>1161627.875307433</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2454,7 +2438,7 @@
         <v>1143284.955307433</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2487,7 +2471,7 @@
         <v>1178080.856407433</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2520,7 +2504,7 @@
         <v>1110335.298907433</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2553,7 +2537,7 @@
         <v>1110384.298907433</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2586,7 +2570,7 @@
         <v>1199590.107007433</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2619,7 +2603,7 @@
         <v>1146093.394807433</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2652,7 +2636,7 @@
         <v>968485.0002074328</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2685,7 +2669,7 @@
         <v>950841.7579074327</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2718,7 +2702,7 @@
         <v>1103562.304070261</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2751,7 +2735,7 @@
         <v>976141.7595702613</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2784,7 +2768,7 @@
         <v>1076192.299070261</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2817,7 +2801,7 @@
         <v>1068833.394370261</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2850,7 +2834,7 @@
         <v>1213189.759370261</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2883,7 +2867,7 @@
         <v>1401743.370170261</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2916,7 +2900,7 @@
         <v>1401743.370170261</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2949,7 +2933,7 @@
         <v>1401694.370170261</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3081,7 +3065,7 @@
         <v>1453266.220870261</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3114,7 +3098,7 @@
         <v>1310046.108470261</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3147,7 +3131,7 @@
         <v>1508652.343170261</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3180,7 +3164,7 @@
         <v>1479071.073570261</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3213,7 +3197,7 @@
         <v>1268022.254870261</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -8493,11 +8477,17 @@
         <v>-493785.8205853751</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>10.49</v>
+      </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8526,11 +8516,17 @@
         <v>-493785.8205853751</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>10.5</v>
+      </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8559,11 +8555,17 @@
         <v>-493737.8205853751</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>10.5</v>
+      </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8592,11 +8594,17 @@
         <v>-494072.1905853751</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>10.55</v>
+      </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8625,11 +8633,17 @@
         <v>-681431.203685375</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>10.5</v>
+      </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8658,11 +8672,17 @@
         <v>-681383.584585375</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>10.35</v>
+      </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8691,11 +8711,17 @@
         <v>-681431.7077853751</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>10.5</v>
+      </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8724,11 +8750,17 @@
         <v>-681335.460885375</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>10.39</v>
+      </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8757,11 +8789,17 @@
         <v>-661337.6802853751</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>10.41</v>
+      </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8794,7 +8832,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8827,7 +8869,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8860,7 +8906,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8889,11 +8939,17 @@
         <v>-842435.7726853751</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>10.36</v>
+      </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8922,11 +8978,17 @@
         <v>-843894.988785375</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>10.4</v>
+      </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8955,11 +9017,17 @@
         <v>-841846.865585375</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>10.37</v>
+      </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8992,7 +9060,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9021,11 +9093,17 @@
         <v>-841799.111285375</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>10.38</v>
+      </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9058,7 +9136,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9091,7 +9173,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9124,7 +9210,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9157,7 +9247,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9190,7 +9284,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9223,7 +9321,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9256,7 +9358,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9289,7 +9395,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9322,7 +9432,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9355,7 +9469,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9388,7 +9506,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9421,7 +9543,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9450,11 +9576,17 @@
         <v>-1278091.051747744</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>10.49</v>
+      </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9487,7 +9619,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9520,7 +9656,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9553,7 +9693,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9586,7 +9730,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9619,7 +9767,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9652,7 +9804,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9685,7 +9841,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9718,7 +9878,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9751,7 +9915,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9784,7 +9952,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9817,7 +9989,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9850,7 +10026,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9883,7 +10063,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9916,7 +10100,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9949,7 +10137,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9982,7 +10174,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10015,7 +10211,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10048,7 +10248,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10081,7 +10285,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10114,7 +10322,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10147,7 +10359,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10180,7 +10396,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10213,7 +10433,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10246,7 +10470,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10279,7 +10507,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10312,7 +10544,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10345,7 +10581,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10378,7 +10618,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10411,7 +10655,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10444,7 +10692,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10477,7 +10729,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10510,7 +10766,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10543,7 +10803,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10576,7 +10840,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10609,7 +10877,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10642,7 +10914,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10675,7 +10951,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10708,7 +10988,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10741,7 +11025,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10774,7 +11062,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10807,7 +11099,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10840,7 +11136,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10873,7 +11173,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10906,7 +11210,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10939,7 +11247,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10972,7 +11284,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11005,7 +11321,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11038,7 +11358,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11071,7 +11395,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11104,7 +11432,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11137,7 +11469,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11170,7 +11506,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11203,7 +11543,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11236,7 +11580,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11269,7 +11617,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11302,7 +11654,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11335,7 +11691,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11368,7 +11728,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11401,7 +11765,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11434,7 +11802,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11467,7 +11839,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11500,7 +11876,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11533,7 +11913,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11566,7 +11950,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11599,7 +11987,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11632,7 +12024,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11665,7 +12061,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11698,7 +12098,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11731,7 +12135,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11764,7 +12172,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11797,7 +12209,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11830,7 +12246,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11863,7 +12283,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11896,7 +12320,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11929,7 +12357,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11958,11 +12390,15 @@
         <v>-483289.8117449427</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11991,11 +12427,15 @@
         <v>-120094.6800768835</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12024,11 +12464,15 @@
         <v>-120094.6800768835</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12057,11 +12501,15 @@
         <v>-448937.9470768835</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12090,11 +12538,15 @@
         <v>-901198.8811768835</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12127,7 +12579,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12160,7 +12616,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12193,7 +12653,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12226,7 +12690,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12259,7 +12727,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12292,7 +12764,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12325,7 +12801,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12354,11 +12834,15 @@
         <v>-1346848.705988779</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12387,11 +12871,15 @@
         <v>-1509527.580688779</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12420,11 +12908,15 @@
         <v>-1522983.085488779</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12453,11 +12945,15 @@
         <v>-1362171.380188779</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12486,11 +12982,15 @@
         <v>-1362171.380188779</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12523,7 +13023,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12556,7 +13060,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12589,7 +13097,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12622,7 +13134,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12655,7 +13171,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12688,7 +13208,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12721,7 +13245,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12754,7 +13282,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12787,7 +13319,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12820,7 +13356,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12853,7 +13393,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12886,7 +13430,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12919,7 +13467,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12952,7 +13504,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12985,7 +13541,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13018,7 +13578,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13051,7 +13615,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13084,7 +13652,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13117,7 +13689,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13150,7 +13726,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13183,7 +13763,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13216,7 +13800,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13249,7 +13837,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13282,7 +13874,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13315,7 +13911,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13348,7 +13948,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13381,7 +13985,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13414,7 +14022,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13447,7 +14059,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13480,7 +14096,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13513,7 +14133,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13546,7 +14170,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13579,7 +14207,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13612,7 +14244,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13645,7 +14281,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13678,7 +14318,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13711,7 +14355,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13744,7 +14392,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13777,7 +14429,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13810,7 +14466,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13843,7 +14503,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13876,7 +14540,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13909,7 +14577,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13942,7 +14614,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13975,7 +14651,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14008,7 +14688,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14041,7 +14725,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14074,7 +14762,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14107,7 +14799,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14140,7 +14836,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14173,7 +14873,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14202,11 +14906,17 @@
         <v>-1667440.871231039</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>10.9</v>
+      </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14235,11 +14945,17 @@
         <v>-1726161.291731039</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>10.8</v>
+      </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14268,11 +14984,17 @@
         <v>-1495071.291431039</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>10.79</v>
+      </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14301,11 +15023,17 @@
         <v>-1479064.437931039</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>10.96</v>
+      </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14334,11 +15062,17 @@
         <v>-1492850.966631039</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>10.98</v>
+      </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14367,11 +15101,17 @@
         <v>-1539586.355431039</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>10.91</v>
+      </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14400,11 +15140,17 @@
         <v>-1539586.355431039</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>10.9</v>
+      </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14437,7 +15183,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14466,11 +15216,17 @@
         <v>-1541413.764131039</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>10.89</v>
+      </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14503,7 +15259,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14536,7 +15296,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14569,7 +15333,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14602,7 +15370,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14635,7 +15407,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14668,7 +15444,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14701,7 +15481,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14734,7 +15518,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14767,7 +15555,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14800,7 +15592,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14829,11 +15625,17 @@
         <v>-1404718.629831039</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>11.11</v>
+      </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14862,11 +15664,17 @@
         <v>-1404718.629831039</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>11</v>
+      </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14899,7 +15707,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14932,7 +15744,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14965,7 +15781,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14998,7 +15818,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15031,7 +15855,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15064,7 +15892,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15097,7 +15929,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15130,7 +15966,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15163,7 +16003,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15196,7 +16040,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15225,11 +16073,17 @@
         <v>-1460977.626431039</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>10.84</v>
+      </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15262,7 +16116,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15295,7 +16153,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15328,7 +16190,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15361,7 +16227,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15394,7 +16264,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15427,7 +16301,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15460,7 +16338,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15493,7 +16375,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15526,7 +16412,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15559,7 +16449,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15592,7 +16486,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15625,7 +16523,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15658,7 +16560,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15691,7 +16597,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15724,7 +16634,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15757,7 +16671,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15790,7 +16708,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15823,7 +16745,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15856,7 +16782,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15889,7 +16819,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15922,7 +16856,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15955,7 +16893,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15988,7 +16930,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16021,7 +16967,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16054,7 +17004,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16087,7 +17041,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16120,7 +17078,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16153,7 +17115,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16186,7 +17152,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16215,11 +17185,17 @@
         <v>-1572510.207833318</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>10.8</v>
+      </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16252,7 +17228,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16285,7 +17265,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16318,7 +17302,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16351,7 +17339,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16384,7 +17376,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16417,7 +17413,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16450,7 +17450,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16483,7 +17487,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16516,7 +17524,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16549,7 +17561,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16582,7 +17598,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16615,7 +17635,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16648,7 +17672,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16681,7 +17709,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16714,7 +17746,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16747,7 +17783,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16780,7 +17820,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16813,7 +17857,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16846,7 +17894,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16879,7 +17931,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16912,7 +17968,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16945,7 +18005,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16978,7 +18042,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17011,7 +18079,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17044,7 +18116,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17077,7 +18153,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17110,7 +18190,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17143,7 +18227,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17176,7 +18264,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17209,7 +18301,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17242,7 +18338,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17275,7 +18375,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17308,7 +18412,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17341,7 +18449,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17374,7 +18486,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17407,7 +18523,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17440,7 +18560,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17473,7 +18597,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17506,7 +18634,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17539,7 +18671,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17572,7 +18708,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17605,7 +18745,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17638,7 +18782,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17671,7 +18819,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17704,7 +18856,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17737,7 +18893,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17770,7 +18930,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17803,7 +18967,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17836,7 +19004,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17869,7 +19041,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17902,7 +19078,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17935,7 +19115,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17968,7 +19152,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18001,7 +19189,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18034,7 +19226,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18067,7 +19263,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18100,7 +19300,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18133,7 +19337,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18166,7 +19374,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18199,7 +19411,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18232,13 +19448,17 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
       <c r="M539" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest OGO.xlsx
+++ b/BackTest/2020-01-14 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,14 +484,10 @@
         <v>-24648.27300000004</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -529,11 +525,7 @@
       <c r="J4" t="n">
         <v>10.24</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,11 +554,9 @@
         <v>398938.6399</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>10.24</v>
       </c>
@@ -603,15 +593,17 @@
         <v>610423.3180999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>10.24</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,19 +632,11 @@
         <v>780134.1547816772</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="J7" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +665,11 @@
         <v>834471.7443816771</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -920,7 +896,7 @@
         <v>3336486.100151325</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -953,7 +929,7 @@
         <v>3336486.100151325</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -986,7 +962,7 @@
         <v>3229661.815551325</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1646,7 +1622,7 @@
         <v>2591989.968504637</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1679,7 +1655,7 @@
         <v>2761544.556004637</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1712,7 +1688,7 @@
         <v>2255693.189404638</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1745,7 +1721,7 @@
         <v>2210179.569804638</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1778,7 +1754,7 @@
         <v>2319304.265204638</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1811,7 +1787,7 @@
         <v>2242793.262804638</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1844,7 +1820,7 @@
         <v>2280183.680804638</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1877,7 +1853,7 @@
         <v>2382732.424804638</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1910,7 +1886,7 @@
         <v>1180014.033104638</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1943,7 +1919,7 @@
         <v>1164335.392604638</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2174,7 +2150,7 @@
         <v>1265044.756607433</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2240,7 +2216,7 @@
         <v>1538784.236107433</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2273,7 +2249,7 @@
         <v>1328402.465407433</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2306,7 +2282,7 @@
         <v>1275021.580407433</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2339,7 +2315,7 @@
         <v>1572411.833607433</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2372,7 +2348,7 @@
         <v>1464484.053207433</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2405,7 +2381,7 @@
         <v>1161627.875307433</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2438,7 +2414,7 @@
         <v>1143284.955307433</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2471,7 +2447,7 @@
         <v>1178080.856407433</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2504,7 +2480,7 @@
         <v>1110335.298907433</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2537,7 +2513,7 @@
         <v>1110384.298907433</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2570,7 +2546,7 @@
         <v>1199590.107007433</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2603,7 +2579,7 @@
         <v>1146093.394807433</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2636,7 +2612,7 @@
         <v>968485.0002074328</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2669,7 +2645,7 @@
         <v>950841.7579074327</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2702,7 +2678,7 @@
         <v>1103562.304070261</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2735,7 +2711,7 @@
         <v>976141.7595702613</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2768,7 +2744,7 @@
         <v>1076192.299070261</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2801,7 +2777,7 @@
         <v>1068833.394370261</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2834,7 +2810,7 @@
         <v>1213189.759370261</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2867,7 +2843,7 @@
         <v>1401743.370170261</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2900,7 +2876,7 @@
         <v>1401743.370170261</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2933,7 +2909,7 @@
         <v>1401694.370170261</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3065,7 +3041,7 @@
         <v>1453266.220870261</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3098,7 +3074,7 @@
         <v>1310046.108470261</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3131,7 +3107,7 @@
         <v>1508652.343170261</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3164,7 +3140,7 @@
         <v>1479071.073570261</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3197,7 +3173,7 @@
         <v>1268022.254870261</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -8477,17 +8453,11 @@
         <v>-493785.8205853751</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>10.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8516,17 +8486,11 @@
         <v>-493785.8205853751</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8555,17 +8519,11 @@
         <v>-493737.8205853751</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8594,17 +8552,11 @@
         <v>-494072.1905853751</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>10.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8633,17 +8585,11 @@
         <v>-681431.203685375</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8672,17 +8618,11 @@
         <v>-681383.584585375</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>10.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8711,17 +8651,11 @@
         <v>-681431.7077853751</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8750,17 +8684,11 @@
         <v>-681335.460885375</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>10.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8789,17 +8717,11 @@
         <v>-661337.6802853751</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>10.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8832,11 +8754,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8865,13 +8783,15 @@
         <v>-793085.5902853751</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>10.41</v>
+      </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L254" t="n">
@@ -8902,9 +8822,11 @@
         <v>-881135.7926853751</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>10.38</v>
+      </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -9056,9 +8978,11 @@
         <v>-841895.035185375</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>10.48</v>
+      </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -9132,9 +9056,11 @@
         <v>-841799.111285375</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>10.45</v>
+      </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
@@ -9169,9 +9095,11 @@
         <v>-841751.310085375</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>10.45</v>
+      </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -9206,9 +9134,11 @@
         <v>-918897.296985375</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>10.46</v>
+      </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
@@ -9243,9 +9173,11 @@
         <v>-918897.296985375</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>10.4</v>
+      </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -9280,9 +9212,11 @@
         <v>-1607307.235285375</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>10.4</v>
+      </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
@@ -9317,9 +9251,11 @@
         <v>-1606352.125447744</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>10.3</v>
+      </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -9354,9 +9290,11 @@
         <v>-1711173.011447744</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>10.47</v>
+      </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -9391,9 +9329,11 @@
         <v>-1697173.011447744</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>10.3</v>
+      </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -9428,9 +9368,11 @@
         <v>-1511040.051747744</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>10.39</v>
+      </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
@@ -9576,11 +9518,9 @@
         <v>-1278091.051747744</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>10.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
@@ -14906,11 +14846,9 @@
         <v>-1667440.871231039</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>10.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
@@ -14945,11 +14883,9 @@
         <v>-1726161.291731039</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>10.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
@@ -14984,11 +14920,9 @@
         <v>-1495071.291431039</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>10.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
@@ -15023,11 +14957,9 @@
         <v>-1479064.437931039</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>10.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
@@ -15062,11 +14994,9 @@
         <v>-1492850.966631039</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>10.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
@@ -15101,11 +15031,9 @@
         <v>-1539586.355431039</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>10.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
@@ -15140,11 +15068,9 @@
         <v>-1539586.355431039</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>10.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
@@ -15216,11 +15142,9 @@
         <v>-1541413.764131039</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>10.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
@@ -15625,11 +15549,9 @@
         <v>-1404718.629831039</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>11.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
@@ -15664,11 +15586,9 @@
         <v>-1404718.629831039</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
@@ -16112,9 +16032,11 @@
         <v>-1461024.094931039</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>10.91</v>
+      </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
@@ -17185,11 +17107,9 @@
         <v>-1572510.207833318</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>10.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
@@ -19459,6 +19379,6 @@
       <c r="M539" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest OGO.xlsx
+++ b/BackTest/2020-01-14 BackTest OGO.xlsx
@@ -484,10 +484,14 @@
         <v>-24648.27300000004</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10.24</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -525,7 +529,11 @@
       <c r="J4" t="n">
         <v>10.24</v>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -554,9 +562,11 @@
         <v>398938.6399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10.41</v>
+      </c>
       <c r="J5" t="n">
         <v>10.24</v>
       </c>
@@ -593,50 +603,56 @@
         <v>610423.3180999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10.42</v>
+      </c>
       <c r="J6" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="K6" t="inlineStr">
+        <v>10.42</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="F7" t="n">
+        <v>169710.8366816773</v>
+      </c>
+      <c r="G7" t="n">
+        <v>780134.1547816772</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="C7" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="E7" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="F7" t="n">
-        <v>169710.8366816773</v>
-      </c>
-      <c r="G7" t="n">
-        <v>780134.1547816772</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -668,8 +684,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -896,7 +918,7 @@
         <v>3336486.100151325</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -929,7 +951,7 @@
         <v>3336486.100151325</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -962,7 +984,7 @@
         <v>3229661.815551325</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1193,7 +1215,7 @@
         <v>4025503.068781959</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1226,7 +1248,7 @@
         <v>4085334.798030235</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1259,7 +1281,7 @@
         <v>3617958.370330235</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1292,7 +1314,7 @@
         <v>3396308.868030236</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1325,7 +1347,7 @@
         <v>2733403.439830236</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1358,7 +1380,7 @@
         <v>3078193.635430235</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1457,7 +1479,7 @@
         <v>2546162.134004638</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1721,7 +1743,7 @@
         <v>2210179.569804638</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1853,7 +1875,7 @@
         <v>2382732.424804638</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1919,7 +1941,7 @@
         <v>1164335.392604638</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1952,7 +1974,7 @@
         <v>1131068.814904638</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1985,7 +2007,7 @@
         <v>1131068.814904638</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2018,7 +2040,7 @@
         <v>1144135.701204638</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2051,7 +2073,7 @@
         <v>1232756.241404637</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2084,7 +2106,7 @@
         <v>1181521.813304638</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2117,7 +2139,7 @@
         <v>1181521.813304638</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2150,7 +2172,7 @@
         <v>1265044.756607433</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -8783,17 +8805,11 @@
         <v>-793085.5902853751</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>10.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8822,17 +8838,11 @@
         <v>-881135.7926853751</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>10.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8861,17 +8871,11 @@
         <v>-842435.7726853751</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>10.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8900,17 +8904,11 @@
         <v>-843894.988785375</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>10.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8939,17 +8937,11 @@
         <v>-841846.865585375</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>10.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8978,17 +8970,11 @@
         <v>-841895.035185375</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>10.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9017,17 +9003,11 @@
         <v>-841799.111285375</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>10.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9056,17 +9036,11 @@
         <v>-841799.111285375</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>10.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9095,17 +9069,11 @@
         <v>-841751.310085375</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>10.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9134,17 +9102,11 @@
         <v>-918897.296985375</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>10.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9173,17 +9135,11 @@
         <v>-918897.296985375</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>10.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9212,17 +9168,11 @@
         <v>-1607307.235285375</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>10.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9251,17 +9201,11 @@
         <v>-1606352.125447744</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>10.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9290,17 +9234,11 @@
         <v>-1711173.011447744</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>10.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9329,17 +9267,11 @@
         <v>-1697173.011447744</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>10.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9368,17 +9300,11 @@
         <v>-1511040.051747744</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>10.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9411,11 +9337,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9448,11 +9370,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9485,11 +9403,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9522,11 +9436,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9559,11 +9469,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9596,11 +9502,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9633,11 +9535,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9670,11 +9568,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9707,11 +9601,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9744,11 +9634,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9781,11 +9667,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9818,11 +9700,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9855,11 +9733,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9892,11 +9766,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9929,11 +9799,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9966,11 +9832,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10003,11 +9865,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10040,11 +9898,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10077,11 +9931,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10114,11 +9964,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10151,11 +9997,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10188,11 +10030,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10225,11 +10063,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10262,11 +10096,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10299,11 +10129,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10336,11 +10162,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10373,11 +10195,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10410,11 +10228,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10447,11 +10261,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10484,11 +10294,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10521,11 +10327,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10558,11 +10360,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10595,11 +10393,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10632,11 +10426,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10669,11 +10459,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10706,11 +10492,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10743,11 +10525,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10780,11 +10558,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10817,11 +10591,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10854,11 +10624,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10891,11 +10657,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10928,11 +10690,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10965,11 +10723,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11002,11 +10756,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11039,11 +10789,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11076,11 +10822,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11113,11 +10855,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11150,11 +10888,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11187,11 +10921,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11224,11 +10954,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11261,11 +10987,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11298,11 +11020,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11335,11 +11053,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11372,11 +11086,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11409,11 +11119,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11446,11 +11152,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11483,11 +11185,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11520,11 +11218,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11557,11 +11251,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11594,11 +11284,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11631,11 +11317,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11668,11 +11350,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11705,11 +11383,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11742,11 +11416,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11779,11 +11449,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11816,11 +11482,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11853,11 +11515,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11890,11 +11548,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11927,11 +11581,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11964,11 +11614,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12001,11 +11647,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12038,11 +11680,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12075,11 +11713,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12112,11 +11746,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12149,11 +11779,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12186,11 +11812,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12223,11 +11845,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12260,11 +11878,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12297,11 +11911,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12334,11 +11944,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12371,11 +11977,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12408,11 +12010,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12445,11 +12043,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12482,11 +12076,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12519,11 +12109,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12556,11 +12142,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12593,11 +12175,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12630,11 +12208,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12667,11 +12241,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12704,11 +12274,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12741,11 +12307,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12778,11 +12340,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12815,11 +12373,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12852,11 +12406,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12889,11 +12439,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12926,11 +12472,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12963,11 +12505,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13000,11 +12538,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13037,11 +12571,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13074,11 +12604,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13111,11 +12637,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13148,11 +12670,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13185,11 +12703,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13222,11 +12736,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13259,11 +12769,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13296,11 +12802,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13333,11 +12835,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13370,11 +12868,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13407,11 +12901,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13444,11 +12934,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13481,11 +12967,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13518,11 +13000,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13555,11 +13033,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13592,11 +13066,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13629,11 +13099,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13666,11 +13132,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13703,11 +13165,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13740,11 +13198,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13777,11 +13231,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13814,11 +13264,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13851,11 +13297,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13888,11 +13330,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13925,11 +13363,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13962,11 +13396,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13999,11 +13429,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14036,11 +13462,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14073,11 +13495,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14110,11 +13528,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14147,11 +13561,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14184,11 +13594,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14221,11 +13627,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14258,11 +13660,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14295,11 +13693,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14332,11 +13726,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14369,11 +13759,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14406,11 +13792,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14443,11 +13825,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14480,11 +13858,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14517,11 +13891,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14554,11 +13924,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14591,11 +13957,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14628,11 +13990,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14665,11 +14023,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14702,11 +14056,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14739,11 +14089,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14776,11 +14122,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14813,11 +14155,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14850,11 +14188,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14887,11 +14221,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14924,11 +14254,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14961,11 +14287,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14998,11 +14320,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15035,11 +14353,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15072,11 +14386,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15109,11 +14419,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15146,11 +14452,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15183,11 +14485,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15220,11 +14518,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15257,11 +14551,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15294,11 +14584,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15331,11 +14617,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15368,11 +14650,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15405,11 +14683,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15442,11 +14716,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15479,11 +14749,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15516,11 +14782,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15553,11 +14815,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15590,11 +14848,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15627,11 +14881,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15664,11 +14914,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15701,11 +14947,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15738,11 +14980,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15775,11 +15013,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15812,11 +15046,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15849,11 +15079,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15886,11 +15112,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15923,11 +15145,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15960,11 +15178,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15993,17 +15207,11 @@
         <v>-1460977.626431039</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
-      </c>
-      <c r="I448" t="n">
-        <v>10.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16032,17 +15240,11 @@
         <v>-1461024.094931039</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
-      </c>
-      <c r="I449" t="n">
-        <v>10.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16075,11 +15277,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16112,11 +15310,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16149,11 +15343,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16186,11 +15376,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16223,11 +15409,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16260,11 +15442,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16297,11 +15475,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16334,11 +15508,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16371,11 +15541,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16408,11 +15574,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16445,11 +15607,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16482,11 +15640,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16519,11 +15673,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16556,11 +15706,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16593,11 +15739,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16630,11 +15772,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16667,11 +15805,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16704,11 +15838,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16741,11 +15871,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16778,11 +15904,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16815,11 +15937,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16852,11 +15970,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16889,11 +16003,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16926,11 +16036,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16963,11 +16069,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17000,11 +16102,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17037,11 +16135,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17074,11 +16168,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17111,11 +16201,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17148,11 +16234,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17185,11 +16267,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17222,11 +16300,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17259,11 +16333,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17296,11 +16366,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17333,11 +16399,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17370,11 +16432,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17407,11 +16465,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17444,11 +16498,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17481,11 +16531,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17518,11 +16564,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17555,11 +16597,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17592,11 +16630,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17629,11 +16663,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17666,11 +16696,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17703,11 +16729,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17740,11 +16762,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17777,11 +16795,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17814,11 +16828,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17851,11 +16861,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17888,11 +16894,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17925,11 +16927,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17962,11 +16960,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17999,11 +16993,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18036,11 +17026,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18073,11 +17059,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18110,11 +17092,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18147,11 +17125,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18184,11 +17158,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18221,11 +17191,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18258,11 +17224,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18295,11 +17257,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18332,11 +17290,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18369,11 +17323,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18406,11 +17356,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18443,11 +17389,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18480,11 +17422,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18517,11 +17455,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18554,11 +17488,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18591,11 +17521,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18628,11 +17554,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18665,11 +17587,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18702,11 +17620,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18739,11 +17653,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18776,11 +17686,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18813,11 +17719,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18850,11 +17752,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18887,11 +17785,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18924,11 +17818,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18961,11 +17851,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18998,11 +17884,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19035,11 +17917,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19072,11 +17950,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19109,11 +17983,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19146,11 +18016,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19183,11 +18049,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19220,11 +18082,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19257,11 +18115,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19294,11 +18148,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19331,11 +18181,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19368,11 +18214,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
